--- a/old/temp01/pin.xlsx
+++ b/old/temp01/pin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>A3</t>
   </si>
@@ -250,7 +250,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流量計</t>
+    <rPh sb="0" eb="3">
+      <t>リュウリョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D5Pump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>temp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -258,7 +293,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,8 +308,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +419,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -509,11 +557,231 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -597,41 +865,155 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -652,13 +1034,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -707,13 +1089,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1048,610 +1430,995 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BI19"/>
+  <dimension ref="B2:BI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5:AI5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="50" width="2.26953125" customWidth="1"/>
-    <col min="51" max="52" width="3.08984375" customWidth="1"/>
-    <col min="53" max="71" width="2.26953125" customWidth="1"/>
+    <col min="1" max="35" width="2.26953125" customWidth="1"/>
+    <col min="36" max="37" width="2.54296875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2.6328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="2.26953125" customWidth="1"/>
+    <col min="42" max="42" width="2.6328125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2.54296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="2.6328125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="2.26953125" customWidth="1"/>
+    <col min="47" max="47" width="2.54296875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="2.6328125" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="2.26953125" customWidth="1"/>
+    <col min="51" max="51" width="2.6328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="2.26953125" customWidth="1"/>
+    <col min="55" max="58" width="2.6328125" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="2.26953125" customWidth="1"/>
+    <col min="61" max="61" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="62" max="71" width="2.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="32" t="s">
+    <row r="2" spans="3:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="Q2" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="W2" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+    </row>
+    <row r="3" spans="3:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="59"/>
+    </row>
+    <row r="4" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C4" s="60"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="83"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="61"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="61"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="61"/>
+      <c r="AP4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC4" s="20">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="21">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="21">
+        <v>2</v>
+      </c>
+      <c r="BF4" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="86"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="61"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="61"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="61"/>
+      <c r="AP5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY5" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF5" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="3:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="64"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="64"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="64"/>
+    </row>
+    <row r="7" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C7" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+    </row>
+    <row r="8" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+    </row>
+    <row r="9" spans="3:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+    </row>
+    <row r="10" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="G10" s="57">
+        <v>3.3</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58">
+        <v>5</v>
+      </c>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58">
+        <v>12</v>
+      </c>
+      <c r="L10" s="59"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="59"/>
+      <c r="Z10" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="74"/>
+      <c r="AJ10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="33" t="s">
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="10" t="s">
+      <c r="AY10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="3:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="60"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="61"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="61"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="77"/>
+      <c r="AJ11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="AK2" s="14" t="s">
+      <c r="AK11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ11" s="35"/>
+      <c r="AR11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ11" s="2"/>
+    </row>
+    <row r="12" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="G12" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="61"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="V12" s="61"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="77"/>
+      <c r="AY12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="3:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="64"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="64"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="78"/>
+      <c r="AB13" s="78"/>
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="79"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AY13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="O14" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="AY14" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ14" s="37">
+        <v>10</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="AY15" s="36"/>
+      <c r="AZ15" s="37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="AY16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ16" s="37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="W17" s="42"/>
+      <c r="X17" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC17" s="41"/>
+      <c r="AN17" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO17" s="44"/>
+      <c r="AR17" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="51"/>
+      <c r="AU17" s="51"/>
+      <c r="AY17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AL2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM2" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2" s="20">
+      <c r="AZ17" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B18" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45">
+        <v>13</v>
+      </c>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45">
+        <v>12</v>
+      </c>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45">
+        <v>11</v>
+      </c>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45">
+        <v>10</v>
+      </c>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45">
+        <v>9</v>
+      </c>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45">
+        <v>8</v>
+      </c>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45">
+        <v>6</v>
+      </c>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45">
+        <v>5</v>
+      </c>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45">
+        <v>4</v>
+      </c>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="45">
         <v>0</v>
       </c>
-      <c r="AP2" s="21">
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45">
+        <v>14</v>
+      </c>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="45">
+        <v>15</v>
+      </c>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="45">
+        <v>16</v>
+      </c>
+      <c r="AK18" s="45"/>
+      <c r="AL18" s="45">
+        <v>17</v>
+      </c>
+      <c r="AM18" s="45"/>
+      <c r="AN18" s="45">
+        <v>18</v>
+      </c>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45">
+        <v>19</v>
+      </c>
+      <c r="AQ18" s="45"/>
+      <c r="AR18" s="45">
+        <v>20</v>
+      </c>
+      <c r="AS18" s="45"/>
+      <c r="AT18" s="45">
+        <v>21</v>
+      </c>
+      <c r="AU18" s="45"/>
+      <c r="AY18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ18" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="D19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AN19" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="47"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="47"/>
+      <c r="AY19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ19" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="X20" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AO20">
+        <v>5</v>
+      </c>
+      <c r="AQ20">
+        <v>4</v>
+      </c>
+      <c r="AS20">
+        <v>3</v>
+      </c>
+      <c r="AU20">
+        <v>2</v>
+      </c>
+      <c r="AY20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="Y21">
         <v>1</v>
       </c>
-      <c r="AQ2" s="21">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="AY22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ22" s="4">
         <v>2</v>
       </c>
-      <c r="AR2" s="22">
+    </row>
+    <row r="23" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="AY23" s="5">
+        <v>4</v>
+      </c>
+      <c r="AZ23" s="4">
         <v>3</v>
       </c>
-      <c r="AY2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH3" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK3" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM3" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO3" s="23" t="s">
+    </row>
+    <row r="24" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="F24" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI24" s="45"/>
+      <c r="AJ24" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK24" s="45"/>
+      <c r="AL24" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM24" s="45"/>
+      <c r="AN24" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO24" s="45"/>
+      <c r="AP24" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ24" s="45"/>
+      <c r="AR24" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS24" s="45"/>
+      <c r="AT24" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU24" s="45"/>
+      <c r="AY24" s="5">
+        <v>3</v>
+      </c>
+      <c r="AZ24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AP3" s="24" t="s">
+    </row>
+    <row r="25" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="P25" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="38"/>
+      <c r="AO25" s="38"/>
+      <c r="AP25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="49"/>
+      <c r="AS25" s="49"/>
+      <c r="AT25" s="49"/>
+      <c r="AU25" s="49"/>
+      <c r="AY25" s="5">
+        <v>2</v>
+      </c>
+      <c r="AZ25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AQ3" s="24" t="s">
+    </row>
+    <row r="26" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="AY26" s="5">
+        <v>1</v>
+      </c>
+      <c r="AZ26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AR3" s="25" t="s">
+    </row>
+    <row r="27" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="AY27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AY3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ3" s="2"/>
-    </row>
-    <row r="4" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="Q4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50"/>
-      <c r="AY5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ5" s="3" t="s">
+      <c r="AZ27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="AY6" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ6" s="37">
-        <v>10</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="AY7" s="36"/>
-      <c r="AZ7" s="37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="AY8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ8" s="37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="W9" s="48"/>
-      <c r="X9" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC9" s="44"/>
-      <c r="AN9" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO9" s="49"/>
-      <c r="AR9" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="43"/>
-      <c r="AU9" s="43"/>
-      <c r="AY9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ9" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="B10" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42">
-        <v>13</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42">
-        <v>12</v>
-      </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42">
-        <v>11</v>
-      </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42">
-        <v>10</v>
-      </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42">
-        <v>9</v>
-      </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42">
-        <v>8</v>
-      </c>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42">
-        <v>7</v>
-      </c>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42">
-        <v>6</v>
-      </c>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42">
-        <v>5</v>
-      </c>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42">
-        <v>4</v>
-      </c>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42">
-        <v>3</v>
-      </c>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42">
-        <v>14</v>
-      </c>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42">
-        <v>15</v>
-      </c>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="42">
-        <v>16</v>
-      </c>
-      <c r="AK10" s="42"/>
-      <c r="AL10" s="42">
-        <v>17</v>
-      </c>
-      <c r="AM10" s="42"/>
-      <c r="AN10" s="42">
-        <v>18</v>
-      </c>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="42">
-        <v>19</v>
-      </c>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="42">
-        <v>20</v>
-      </c>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42">
-        <v>21</v>
-      </c>
-      <c r="AU10" s="42"/>
-      <c r="AY10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ10" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="D11" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AN11" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO11" s="47"/>
-      <c r="AP11" s="47"/>
-      <c r="AQ11" s="47"/>
-      <c r="AR11" s="47"/>
-      <c r="AS11" s="47"/>
-      <c r="AT11" s="47"/>
-      <c r="AU11" s="47"/>
-      <c r="AY11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ11" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="X12" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AO12">
-        <v>5</v>
-      </c>
-      <c r="AQ12">
-        <v>4</v>
-      </c>
-      <c r="AS12">
-        <v>3</v>
-      </c>
-      <c r="AU12">
-        <v>2</v>
-      </c>
-      <c r="AY12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="AY14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="AY15" s="5">
-        <v>4</v>
-      </c>
-      <c r="AZ15" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="F16" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG16" s="42"/>
-      <c r="AH16" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK16" s="42"/>
-      <c r="AL16" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM16" s="42"/>
-      <c r="AN16" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO16" s="42"/>
-      <c r="AP16" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ16" s="42"/>
-      <c r="AR16" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS16" s="42"/>
-      <c r="AT16" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU16" s="42"/>
-      <c r="AY16" s="5">
-        <v>3</v>
-      </c>
-      <c r="AZ16" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="16:52" x14ac:dyDescent="0.2">
-      <c r="P17" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
-      <c r="AO17" s="38"/>
-      <c r="AP17" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="39"/>
-      <c r="AU17" s="39"/>
-      <c r="AY17" s="5">
-        <v>2</v>
-      </c>
-      <c r="AZ17" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="16:52" x14ac:dyDescent="0.2">
-      <c r="AY18" s="5">
-        <v>1</v>
-      </c>
-      <c r="AZ18" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="16:52" x14ac:dyDescent="0.2">
-      <c r="AY19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ19" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="D11:AA11"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AR16:AS16"/>
-    <mergeCell ref="AP16:AQ16"/>
-    <mergeCell ref="AN16:AO16"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="AN11:AU11"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="P17:W17"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="AJ16:AK16"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AP17:AU17"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AR9:AU9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="L16:M16"/>
+  <mergeCells count="105">
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="Z10:AD13"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="W2:AD2"/>
+    <mergeCell ref="W7:AD7"/>
+    <mergeCell ref="O9:V9"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="W3:X4"/>
+    <mergeCell ref="W5:X6"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="AC3:AD4"/>
+    <mergeCell ref="AC5:AD6"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="AA5:AB6"/>
+    <mergeCell ref="S3:T4"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="Y3:Z4"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AP18:AQ18"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="AJ18:AK18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AR17:AU17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AP25:AU25"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="P25:W25"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="D19:AA19"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="AR24:AS24"/>
+    <mergeCell ref="AP24:AQ24"/>
+    <mergeCell ref="AN24:AO24"/>
+    <mergeCell ref="AL24:AM24"/>
+    <mergeCell ref="AN19:AU19"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="AJ24:AK24"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
